--- a/Team-Data/2012-13/2-2-2012-13.xlsx
+++ b/Team-Data/2012-13/2-2-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,91 +733,91 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.578</v>
       </c>
       <c r="H2" t="n">
         <v>48.7</v>
       </c>
       <c r="I2" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J2" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.458</v>
+        <v>0.46</v>
       </c>
       <c r="L2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M2" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O2" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="P2" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.696</v>
+        <v>0.698</v>
       </c>
       <c r="R2" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U2" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="V2" t="n">
         <v>15.1</v>
       </c>
       <c r="W2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y2" t="n">
         <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.2</v>
+        <v>96.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -759,13 +826,13 @@
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -798,10 +865,10 @@
         <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
@@ -810,13 +877,13 @@
         <v>11</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>-0.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
         <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -947,7 +1014,7 @@
         <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL3" t="n">
         <v>28</v>
@@ -965,7 +1032,7 @@
         <v>22</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
         <v>28</v>
@@ -977,10 +1044,10 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>1.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
         <v>10</v>
@@ -1120,7 +1187,7 @@
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1129,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>10</v>
@@ -1138,7 +1205,7 @@
         <v>8</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
@@ -1153,13 +1220,13 @@
         <v>9</v>
       </c>
       <c r="AS4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
         <v>18</v>
       </c>
       <c r="AU4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
         <v>9</v>
@@ -1168,7 +1235,7 @@
         <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY4" t="n">
         <v>5</v>
@@ -1177,10 +1244,10 @@
         <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC4" t="n">
         <v>13</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
         <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>0.239</v>
+        <v>0.244</v>
       </c>
       <c r="H5" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I5" t="n">
         <v>34.6</v>
       </c>
       <c r="J5" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K5" t="n">
         <v>0.424</v>
@@ -1239,28 +1306,28 @@
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O5" t="n">
         <v>19.6</v>
       </c>
       <c r="P5" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.754</v>
+        <v>0.751</v>
       </c>
       <c r="R5" t="n">
         <v>11.5</v>
       </c>
       <c r="S5" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T5" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U5" t="n">
         <v>18.8</v>
@@ -1269,7 +1336,7 @@
         <v>14.4</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
         <v>6.4</v>
@@ -1278,25 +1345,25 @@
         <v>7.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB5" t="n">
         <v>94.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG5" t="n">
         <v>29</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1329,16 +1396,16 @@
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
         <v>15</v>
       </c>
       <c r="AS5" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
@@ -1347,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="AW5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
@@ -1356,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -1394,88 +1461,88 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" t="n">
         <v>18</v>
       </c>
       <c r="G6" t="n">
-        <v>0.617</v>
+        <v>0.609</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J6" t="n">
-        <v>81.09999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M6" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O6" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P6" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.78</v>
+        <v>0.781</v>
       </c>
       <c r="R6" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S6" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U6" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V6" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y6" t="n">
         <v>5.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
         <v>93.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>8</v>
@@ -1484,13 +1551,13 @@
         <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
@@ -1502,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1511,7 +1578,7 @@
         <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR6" t="n">
         <v>8</v>
@@ -1520,25 +1587,25 @@
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY6" t="n">
         <v>20</v>
       </c>
       <c r="AZ6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -1576,46 +1643,46 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
         <v>34</v>
       </c>
       <c r="G7" t="n">
-        <v>0.292</v>
+        <v>0.277</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="J7" t="n">
-        <v>84.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.424</v>
+        <v>0.423</v>
       </c>
       <c r="L7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M7" t="n">
         <v>20.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.351</v>
+        <v>0.348</v>
       </c>
       <c r="O7" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P7" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.759</v>
+        <v>0.756</v>
       </c>
       <c r="R7" t="n">
         <v>12.8</v>
@@ -1624,13 +1691,13 @@
         <v>28.5</v>
       </c>
       <c r="T7" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U7" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="V7" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W7" t="n">
         <v>8.1</v>
@@ -1639,25 +1706,25 @@
         <v>3.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA7" t="n">
         <v>20.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>96</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.2</v>
+        <v>-5.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF7" t="n">
         <v>28</v>
@@ -1669,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1684,10 +1751,10 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
         <v>14</v>
@@ -1702,13 +1769,13 @@
         <v>29</v>
       </c>
       <c r="AT7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW7" t="n">
         <v>14</v>
@@ -1726,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BC7" t="n">
         <v>28</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1893,7 +1960,7 @@
         <v>9</v>
       </c>
       <c r="AW8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX8" t="n">
         <v>14</v>
@@ -1908,10 +1975,10 @@
         <v>22</v>
       </c>
       <c r="BB8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2030,7 +2097,7 @@
         <v>8</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2045,7 +2112,7 @@
         <v>21</v>
       </c>
       <c r="AM9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN9" t="n">
         <v>27</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2212,19 +2279,19 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>26</v>
@@ -2254,7 +2321,7 @@
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
         <v>28</v>
@@ -2266,16 +2333,16 @@
         <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>0.638</v>
+        <v>0.63</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J11" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K11" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L11" t="n">
         <v>7.9</v>
@@ -2334,16 +2401,16 @@
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.394</v>
+        <v>0.393</v>
       </c>
       <c r="O11" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P11" t="n">
         <v>21.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.803</v>
+        <v>0.805</v>
       </c>
       <c r="R11" t="n">
         <v>10.9</v>
@@ -2355,37 +2422,37 @@
         <v>44.7</v>
       </c>
       <c r="U11" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="V11" t="n">
         <v>15.2</v>
       </c>
       <c r="W11" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA11" t="n">
         <v>19.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2394,10 +2461,10 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
         <v>8</v>
@@ -2445,7 +2512,7 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ11" t="n">
         <v>28</v>
@@ -2457,7 +2524,7 @@
         <v>7</v>
       </c>
       <c r="BC11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -2486,64 +2553,64 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
         <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>0.531</v>
+        <v>0.521</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J12" t="n">
         <v>82.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L12" t="n">
         <v>10.1</v>
       </c>
       <c r="M12" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="N12" t="n">
         <v>0.359</v>
       </c>
       <c r="O12" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P12" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q12" t="n">
         <v>0.754</v>
       </c>
       <c r="R12" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S12" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U12" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V12" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W12" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X12" t="n">
         <v>4.1</v>
@@ -2558,16 +2625,16 @@
         <v>19.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF12" t="n">
         <v>15</v>
@@ -2582,10 +2649,10 @@
         <v>7</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>2.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF13" t="n">
         <v>10</v>
@@ -2758,13 +2825,13 @@
         <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2797,10 +2864,10 @@
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2809,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
         <v>14</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2943,16 +3010,16 @@
         <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM14" t="n">
         <v>12</v>
@@ -2964,7 +3031,7 @@
         <v>11</v>
       </c>
       <c r="AP14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
         <v>26</v>
@@ -2973,7 +3040,7 @@
         <v>14</v>
       </c>
       <c r="AS14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT14" t="n">
         <v>17</v>
@@ -2994,7 +3061,7 @@
         <v>7</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3125,13 +3192,13 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
         <v>20</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
@@ -3167,10 +3234,10 @@
         <v>27</v>
       </c>
       <c r="AW15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
         <v>13</v>
@@ -3185,7 +3252,7 @@
         <v>5</v>
       </c>
       <c r="BC15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3310,10 +3377,10 @@
         <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3355,10 +3422,10 @@
         <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA16" t="n">
         <v>19</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>5.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF17" t="n">
         <v>3</v>
@@ -3519,7 +3586,7 @@
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3531,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -3578,34 +3645,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" t="n">
         <v>21</v>
       </c>
       <c r="G18" t="n">
-        <v>0.543</v>
+        <v>0.533</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
       </c>
       <c r="I18" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J18" t="n">
-        <v>86.59999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L18" t="n">
         <v>6.6</v>
       </c>
       <c r="M18" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="N18" t="n">
         <v>0.355</v>
@@ -3629,10 +3696,10 @@
         <v>43.7</v>
       </c>
       <c r="U18" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V18" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W18" t="n">
         <v>8.4</v>
@@ -3647,16 +3714,16 @@
         <v>19.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3665,7 +3732,7 @@
         <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
         <v>25</v>
@@ -3677,13 +3744,13 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
         <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN18" t="n">
         <v>14</v>
@@ -3695,19 +3762,19 @@
         <v>18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR18" t="n">
         <v>4</v>
       </c>
       <c r="AS18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
         <v>8</v>
@@ -3722,7 +3789,7 @@
         <v>6</v>
       </c>
       <c r="AZ18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -3760,31 +3827,31 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" t="n">
         <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>0.409</v>
+        <v>0.395</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="J19" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0.435</v>
+        <v>0.432</v>
       </c>
       <c r="L19" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M19" t="n">
         <v>18.5</v>
@@ -3796,13 +3863,13 @@
         <v>18.5</v>
       </c>
       <c r="P19" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.728</v>
+        <v>0.729</v>
       </c>
       <c r="R19" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S19" t="n">
         <v>30.7</v>
@@ -3811,13 +3878,13 @@
         <v>43.8</v>
       </c>
       <c r="U19" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V19" t="n">
         <v>15.3</v>
       </c>
       <c r="W19" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X19" t="n">
         <v>5.2</v>
@@ -3826,22 +3893,22 @@
         <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="AA19" t="n">
         <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.2</v>
+        <v>94.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-1.7</v>
+        <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
         <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF19" t="n">
         <v>18</v>
@@ -3856,22 +3923,22 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>27</v>
       </c>
       <c r="AM19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP19" t="n">
         <v>6</v>
@@ -3886,34 +3953,34 @@
         <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX19" t="n">
         <v>15</v>
       </c>
       <c r="AY19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC19" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -3942,85 +4009,85 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" t="n">
-        <v>0.313</v>
+        <v>0.319</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>80.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L20" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="O20" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="P20" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R20" t="n">
         <v>11.3</v>
       </c>
       <c r="S20" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="T20" t="n">
-        <v>41.2</v>
+        <v>41.5</v>
       </c>
       <c r="U20" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V20" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="W20" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="X20" t="n">
         <v>5.3</v>
       </c>
       <c r="Y20" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AD20" t="n">
         <v>6</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>-4.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>4</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
@@ -4032,10 +4099,10 @@
         <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
@@ -4044,7 +4111,7 @@
         <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM20" t="n">
         <v>19</v>
@@ -4068,13 +4135,13 @@
         <v>21</v>
       </c>
       <c r="AT20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU20" t="n">
         <v>21</v>
       </c>
-      <c r="AU20" t="n">
-        <v>22</v>
-      </c>
       <c r="AV20" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
@@ -4089,13 +4156,13 @@
         <v>21</v>
       </c>
       <c r="BA20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -4124,88 +4191,88 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" t="n">
         <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>0.667</v>
+        <v>0.659</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J21" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.447</v>
+        <v>0.445</v>
       </c>
       <c r="L21" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="M21" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.385</v>
+        <v>0.383</v>
       </c>
       <c r="O21" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="P21" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.749</v>
+        <v>0.752</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T21" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="U21" t="n">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="V21" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="W21" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Y21" t="n">
         <v>3.8</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>3.7</v>
       </c>
       <c r="Z21" t="n">
         <v>19.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>101</v>
+        <v>100.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="AD21" t="n">
         <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
         <v>5</v>
@@ -4217,13 +4284,13 @@
         <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
@@ -4241,25 +4308,25 @@
         <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
@@ -4268,13 +4335,13 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA21" t="n">
         <v>18</v>
       </c>
       <c r="BB21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC21" t="n">
         <v>5</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -4306,25 +4373,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="n">
         <v>35</v>
       </c>
       <c r="F22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>0.745</v>
+        <v>0.761</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J22" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="K22" t="n">
         <v>0.479</v>
@@ -4336,10 +4403,10 @@
         <v>19.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O22" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="P22" t="n">
         <v>27.2</v>
@@ -4348,49 +4415,49 @@
         <v>0.836</v>
       </c>
       <c r="R22" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S22" t="n">
         <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U22" t="n">
         <v>21.8</v>
       </c>
       <c r="V22" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Y22" t="n">
         <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="n">
         <v>2</v>
@@ -4414,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4426,22 +4493,22 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS22" t="n">
         <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4453,13 +4520,13 @@
         <v>23</v>
       </c>
       <c r="BA22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
       </c>
       <c r="BC22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4555,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" t="n">
         <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" t="n">
-        <v>0.298</v>
+        <v>0.304</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J23" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K23" t="n">
         <v>0.454</v>
@@ -4518,43 +4585,43 @@
         <v>19.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O23" t="n">
         <v>12.5</v>
       </c>
       <c r="P23" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.781</v>
+        <v>0.789</v>
       </c>
       <c r="R23" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="S23" t="n">
         <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U23" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="V23" t="n">
         <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X23" t="n">
         <v>4.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="n">
         <v>16.5</v>
@@ -4563,10 +4630,10 @@
         <v>94.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.5</v>
+        <v>-4.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
         <v>27</v>
@@ -4578,13 +4645,13 @@
         <v>27</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
         <v>8</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AK23" t="n">
         <v>11</v>
@@ -4596,7 +4663,7 @@
         <v>13</v>
       </c>
       <c r="AN23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4605,10 +4672,10 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
         <v>9</v>
@@ -4617,10 +4684,10 @@
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4629,7 +4696,7 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ23" t="n">
         <v>8</v>
@@ -4638,10 +4705,10 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -4763,13 +4830,13 @@
         <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4793,19 +4860,19 @@
         <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT24" t="n">
         <v>22</v>
       </c>
       <c r="AU24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV24" t="n">
         <v>3</v>
       </c>
       <c r="AW24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX24" t="n">
         <v>17</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
       </c>
       <c r="F25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>0.333</v>
+        <v>0.34</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4873,13 +4940,13 @@
         <v>84.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L25" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M25" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="N25" t="n">
         <v>0.329</v>
@@ -4888,19 +4955,19 @@
         <v>15</v>
       </c>
       <c r="P25" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q25" t="n">
         <v>0.751</v>
       </c>
       <c r="R25" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S25" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T25" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="U25" t="n">
         <v>22</v>
@@ -4912,7 +4979,7 @@
         <v>7.9</v>
       </c>
       <c r="X25" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y25" t="n">
         <v>5.2</v>
@@ -4921,16 +4988,16 @@
         <v>20.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB25" t="n">
         <v>95.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.4</v>
+        <v>-4.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>25</v>
@@ -4945,13 +5012,13 @@
         <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL25" t="n">
         <v>25</v>
@@ -4969,13 +5036,13 @@
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
         <v>17</v>
       </c>
       <c r="AS25" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AT25" t="n">
         <v>25</v>
@@ -4987,13 +5054,13 @@
         <v>5</v>
       </c>
       <c r="AW25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ25" t="n">
         <v>18</v>
@@ -5002,10 +5069,10 @@
         <v>27</v>
       </c>
       <c r="BB25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -5034,55 +5101,55 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" t="n">
         <v>23</v>
       </c>
       <c r="G26" t="n">
-        <v>0.511</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I26" t="n">
         <v>36</v>
       </c>
       <c r="J26" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L26" t="n">
         <v>8.1</v>
       </c>
       <c r="M26" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.34</v>
+        <v>0.337</v>
       </c>
       <c r="O26" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P26" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.773</v>
+        <v>0.776</v>
       </c>
       <c r="R26" t="n">
         <v>11.7</v>
       </c>
       <c r="S26" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T26" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U26" t="n">
         <v>21.1</v>
@@ -5091,10 +5158,10 @@
         <v>15</v>
       </c>
       <c r="W26" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
         <v>4</v>
@@ -5103,16 +5170,16 @@
         <v>18.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5130,10 +5197,10 @@
         <v>22</v>
       </c>
       <c r="AJ26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO26" t="n">
         <v>18</v>
@@ -5157,22 +5224,22 @@
         <v>13</v>
       </c>
       <c r="AS26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV26" t="n">
         <v>19</v>
       </c>
       <c r="AW26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX26" t="n">
         <v>21</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>20</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5184,10 +5251,10 @@
         <v>21</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" t="n">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27" t="n">
-        <v>0.347</v>
+        <v>0.354</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J27" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K27" t="n">
         <v>0.438</v>
@@ -5243,61 +5310,61 @@
         <v>6.5</v>
       </c>
       <c r="M27" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O27" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P27" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="Q27" t="n">
         <v>0.753</v>
       </c>
       <c r="R27" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S27" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T27" t="n">
-        <v>40.2</v>
+        <v>40.4</v>
       </c>
       <c r="U27" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W27" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X27" t="n">
         <v>4.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA27" t="n">
         <v>19.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.90000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-7.2</v>
+        <v>-6.6</v>
       </c>
       <c r="AD27" t="n">
         <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
@@ -5312,28 +5379,28 @@
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL27" t="n">
         <v>19</v>
       </c>
       <c r="AM27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN27" t="n">
         <v>15</v>
       </c>
       <c r="AO27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP27" t="n">
         <v>13</v>
       </c>
       <c r="AQ27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR27" t="n">
         <v>12</v>
@@ -5345,13 +5412,13 @@
         <v>27</v>
       </c>
       <c r="AU27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV27" t="n">
         <v>18</v>
       </c>
       <c r="AW27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
@@ -5366,7 +5433,7 @@
         <v>16</v>
       </c>
       <c r="BB27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" t="n">
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.776</v>
+        <v>0.771</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5416,34 +5483,34 @@
         <v>39.7</v>
       </c>
       <c r="J28" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.487</v>
       </c>
       <c r="L28" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M28" t="n">
         <v>22.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.379</v>
+        <v>0.382</v>
       </c>
       <c r="O28" t="n">
         <v>16.3</v>
       </c>
       <c r="P28" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.788</v>
+        <v>0.786</v>
       </c>
       <c r="R28" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="S28" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
         <v>41.5</v>
@@ -5455,22 +5522,22 @@
         <v>15</v>
       </c>
       <c r="W28" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X28" t="n">
         <v>5.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z28" t="n">
         <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.1</v>
+        <v>104.3</v>
       </c>
       <c r="AC28" t="n">
         <v>8.4</v>
@@ -5515,7 +5582,7 @@
         <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5524,7 +5591,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5551,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="BC28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>-1.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
@@ -5673,13 +5740,13 @@
         <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5688,7 +5755,7 @@
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO29" t="n">
         <v>16</v>
@@ -5709,19 +5776,19 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX29" t="n">
         <v>23</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -5762,67 +5829,67 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" t="n">
         <v>26</v>
       </c>
       <c r="F30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G30" t="n">
-        <v>0.542</v>
+        <v>0.553</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J30" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K30" t="n">
         <v>0.448</v>
       </c>
       <c r="L30" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M30" t="n">
         <v>17</v>
       </c>
       <c r="N30" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="O30" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P30" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R30" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S30" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T30" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U30" t="n">
         <v>22.8</v>
       </c>
       <c r="V30" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="W30" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y30" t="n">
         <v>6.1</v>
@@ -5837,34 +5904,34 @@
         <v>98</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
         <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
         <v>14</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
         <v>25</v>
@@ -5873,10 +5940,10 @@
         <v>9</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ30" t="n">
         <v>12</v>
@@ -5885,16 +5952,16 @@
         <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV30" t="n">
         <v>16</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>11</v>
       </c>
       <c r="AW30" t="n">
         <v>8</v>
@@ -5903,13 +5970,13 @@
         <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
         <v>27</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" t="n">
-        <v>0.239</v>
+        <v>0.244</v>
       </c>
       <c r="H31" t="n">
         <v>48.8</v>
@@ -5962,73 +6029,73 @@
         <v>34.9</v>
       </c>
       <c r="J31" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.421</v>
+        <v>0.422</v>
       </c>
       <c r="L31" t="n">
         <v>6.5</v>
       </c>
       <c r="M31" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.336</v>
+        <v>0.338</v>
       </c>
       <c r="O31" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="P31" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.733</v>
+        <v>0.738</v>
       </c>
       <c r="R31" t="n">
         <v>11</v>
       </c>
       <c r="S31" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T31" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U31" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V31" t="n">
         <v>15.5</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X31" t="n">
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>90.8</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-5.1</v>
+        <v>-5</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6040,7 +6107,7 @@
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6049,10 +6116,10 @@
         <v>20</v>
       </c>
       <c r="AM31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
@@ -6061,7 +6128,7 @@
         <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
         <v>18</v>
@@ -6085,13 +6152,13 @@
         <v>22</v>
       </c>
       <c r="AY31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-2-2012-13</t>
+          <t>2013-02-02</t>
         </is>
       </c>
     </row>
